--- a/XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)/DATA PRAKTIK XII RPl 1.xlsx
+++ b/XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)/DATA PRAKTIK XII RPl 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AdeSetiyawan)(✿◡‿◡)(✿◡‿◡)\XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C7033F-560D-443B-A528-E5D32A77F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD42B38-52EC-4F58-B5B8-49985740DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A470BEC-FF9B-4C58-B3A9-6A89F2B6EB46}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,9 +73,6 @@
     <t xml:space="preserve">Halaman </t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
     <t>@yield('sidebar')</t>
   </si>
   <si>
@@ -208,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Wafiq </t>
+  </si>
+  <si>
+    <t>LINK (blade)</t>
   </si>
 </sst>
 </file>
@@ -909,10 +910,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8966E4-2275-4E9F-82CA-974F40DBA593}">
   <dimension ref="D1:O1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>2</v>
@@ -948,7 +949,7 @@
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -965,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>4</v>
@@ -991,10 +992,10 @@
       <c r="E3" s="12"/>
       <c r="F3" s="24"/>
       <c r="G3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="14"/>
@@ -1009,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="8">
@@ -1031,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8">
@@ -1053,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8">
@@ -1075,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="8">
@@ -1097,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8">
@@ -1119,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3">
@@ -1141,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="8">
@@ -1163,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8">
@@ -1185,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8">
@@ -1207,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="8">
@@ -1229,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="8">
@@ -1251,7 +1252,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="8">
@@ -1273,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="8">
@@ -1295,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="8">
@@ -1317,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="8">
@@ -1339,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8">
@@ -1361,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3">
@@ -1383,7 +1384,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8">
@@ -1405,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="8">
@@ -1427,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3">
@@ -1449,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="8">
@@ -1471,7 +1472,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="8">
@@ -1493,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="8">
@@ -1515,7 +1516,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="8">
@@ -1537,7 +1538,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="8">
@@ -1559,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3">
@@ -1581,7 +1582,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="8">
@@ -1603,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8">
@@ -1625,7 +1626,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="8">
@@ -1647,7 +1648,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="8">
@@ -1669,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="8">
@@ -1691,7 +1692,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="8">
@@ -1713,7 +1714,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="8">
@@ -1735,7 +1736,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="8">
@@ -1757,7 +1758,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="8">
@@ -1779,7 +1780,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="8">
@@ -1879,7 +1880,7 @@
     </row>
     <row r="3" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -1951,7 +1952,7 @@
     </row>
     <row r="8" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F8" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -1981,12 +1982,12 @@
     </row>
     <row r="10" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F10" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
       <c r="I10" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -2251,7 +2252,7 @@
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F29" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>

--- a/XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)/DATA PRAKTIK XII RPl 1.xlsx
+++ b/XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)/DATA PRAKTIK XII RPl 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AdeSetiyawan)(✿◡‿◡)(✿◡‿◡)\XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50B41BD-F9EF-465A-8855-D6A1BB6B23B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302C133D-EED6-44BE-890F-8BE22910177F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A470BEC-FF9B-4C58-B3A9-6A89F2B6EB46}"/>
   </bookViews>
@@ -25,17 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -262,6 +251,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0&quot;%&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -625,11 +617,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,72 +708,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,25 +723,109 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,10 +1142,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8966E4-2275-4E9F-82CA-974F40DBA593}">
   <dimension ref="B1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,104 +1168,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="29" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C2" s="21"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="21"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="12"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1255,7 +1316,7 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1306,7 +1367,7 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1357,7 +1418,7 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1408,7 +1469,7 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="14">
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1459,7 +1520,7 @@
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="14">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1510,7 +1571,7 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="14">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1561,7 +1622,7 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1612,7 +1673,7 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="14">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1663,7 +1724,7 @@
       <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="14">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1714,7 +1775,7 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="14">
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1765,7 +1826,7 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="14">
         <v>12</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1819,7 +1880,7 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="14">
         <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1835,10 +1896,10 @@
       <c r="H16" s="11">
         <v>1</v>
       </c>
-      <c r="I16" s="42">
-        <v>0</v>
-      </c>
-      <c r="J16" s="42">
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
         <v>0</v>
       </c>
       <c r="K16" s="11">
@@ -1870,7 +1931,7 @@
       <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="14">
         <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1921,7 +1982,7 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="14">
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1972,7 +2033,7 @@
       <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="14">
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -2023,7 +2084,7 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="14">
         <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2074,7 +2135,7 @@
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="14">
         <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -2128,7 +2189,7 @@
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="14">
         <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -2144,10 +2205,10 @@
       <c r="H22" s="11">
         <v>1</v>
       </c>
-      <c r="I22" s="42">
-        <v>0</v>
-      </c>
-      <c r="J22" s="42">
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
         <v>0</v>
       </c>
       <c r="K22" s="11">
@@ -2179,7 +2240,7 @@
       <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="14">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2230,7 +2291,7 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="14">
         <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2281,7 +2342,7 @@
       <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="14">
         <v>22</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2332,7 +2393,7 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="14">
         <v>23</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2383,7 +2444,7 @@
       <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="14">
         <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -2434,7 +2495,7 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="14">
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2485,7 +2546,7 @@
       <c r="C29" s="3">
         <v>2</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="14">
         <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -2536,7 +2597,7 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="14">
         <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2587,7 +2648,7 @@
       <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="14">
         <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -2638,7 +2699,7 @@
       <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="14">
         <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -2689,7 +2750,7 @@
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="14">
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -2740,7 +2801,7 @@
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="14">
         <v>31</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -2791,7 +2852,7 @@
       <c r="C35" s="3">
         <v>2</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="14">
         <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -2842,7 +2903,7 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="14">
         <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -2893,7 +2954,7 @@
       <c r="C37" s="3">
         <v>2</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="14">
         <v>34</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -2944,7 +3005,7 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="14">
         <v>35</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -2995,7 +3056,7 @@
       <c r="C39" s="3">
         <v>2</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="14">
         <v>36</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -3042,11 +3103,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G40" s="51">
+        <f>(AVERAGE(G4:G39)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="H40" s="52">
+        <f t="shared" ref="H40:J40" si="1">(AVERAGE(H4:H39)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="I40" s="52">
+        <f t="shared" si="1"/>
+        <v>79.861111111111114</v>
+      </c>
+      <c r="J40" s="53">
+        <f t="shared" si="1"/>
+        <v>80.555555555555557</v>
+      </c>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G41" s="54">
+        <f>AVERAGE(G40:J40)</f>
+        <v>90.104166666666657</v>
+      </c>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="56"/>
+    </row>
     <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G1048576" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="G41:J41"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="C1:C3"/>
@@ -3115,51 +3212,51 @@
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45" t="s">
+      <c r="E3" s="21"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="48"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="45" t="s">
+      <c r="E5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3180,31 +3277,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="S1" s="25" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="S1" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
     </row>
     <row r="2" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
@@ -3221,767 +3318,767 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="S3" s="40" t="s">
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="S3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
     </row>
     <row r="4" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
     </row>
     <row r="5" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
     </row>
     <row r="6" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
     </row>
     <row r="7" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
     </row>
     <row r="8" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="S8" s="40" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="S8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
     </row>
     <row r="9" spans="6:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
     </row>
     <row r="10" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22" t="s">
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="S10" s="40" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="S10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="40" t="s">
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
     </row>
     <row r="11" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
     </row>
     <row r="12" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
     </row>
     <row r="13" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
     </row>
     <row r="14" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
     </row>
     <row r="15" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
     </row>
     <row r="16" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
     </row>
     <row r="17" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
     </row>
     <row r="18" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
     </row>
     <row r="19" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
     </row>
     <row r="20" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
     </row>
     <row r="21" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
     </row>
     <row r="22" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
     </row>
     <row r="23" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
     </row>
     <row r="24" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
     </row>
     <row r="25" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
     </row>
     <row r="26" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
     </row>
     <row r="27" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
     </row>
     <row r="28" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
     </row>
     <row r="29" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="S29" s="40" t="s">
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="S29" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
     </row>
     <row r="30" spans="6:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S29:AD30"/>
+    <mergeCell ref="F3:Q7"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="F10:H28"/>
+    <mergeCell ref="I10:Q28"/>
+    <mergeCell ref="F29:Q30"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="S1:AD1"/>
     <mergeCell ref="S3:AD7"/>
     <mergeCell ref="S8:AD9"/>
     <mergeCell ref="S10:U28"/>
     <mergeCell ref="V10:AD28"/>
-    <mergeCell ref="S29:AD30"/>
-    <mergeCell ref="F3:Q7"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="F10:H28"/>
-    <mergeCell ref="I10:Q28"/>
-    <mergeCell ref="F29:Q30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)/DATA PRAKTIK XII RPl 1.xlsx
+++ b/XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)/DATA PRAKTIK XII RPl 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AdeSetiyawan)(✿◡‿◡)(✿◡‿◡)\XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_01.AdeSetiyawan\01. Pembelajaran\pwpb2223\XIIRPL1(✿◡‿◡)(✿◡‿◡)(✿◡‿◡)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C160E-6F33-4BAB-AF21-6DE81212D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2A7E75-B87E-4A79-9798-19E530DD04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A470BEC-FF9B-4C58-B3A9-6A89F2B6EB46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7A470BEC-FF9B-4C58-B3A9-6A89F2B6EB46}"/>
   </bookViews>
   <sheets>
     <sheet name="Penilaian Kelas" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -379,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0&quot;%&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +436,16 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -891,9 +908,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -902,54 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -966,11 +932,81 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,12 +1018,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,14 +1032,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1017,40 +1044,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,15 +1065,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,11 +1322,10 @@
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="12700" cap="flat" cmpd="sng">
+                <a14:hiddenLine w="12700">
                   <a:solidFill>
                     <a:srgbClr val="000080" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="32"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
                   <a:tailEnd/>
@@ -1344,14 +1360,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -1360,7 +1381,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC55DDC1-1ECD-41C6-92DF-BE4C159456D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1419,20 +1440,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
@@ -1441,7 +1467,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A037FD1E-AEE2-4740-BCEC-77AF5BD864FD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,20 +1526,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -1522,7 +1553,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B2B14E-AE26-4B91-B9DA-C783DC902D54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1581,20 +1612,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
@@ -1603,7 +1639,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9EFF2-495F-4D5D-A041-18A834E17433}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1662,20 +1698,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
@@ -1684,7 +1725,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67921BB-16D1-41E7-BB08-6A6FDCD3286F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1743,20 +1784,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
@@ -1765,7 +1811,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A832C4B-E745-4380-B690-E82E8195EC1A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1824,20 +1870,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -1846,7 +1897,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68EE693-6434-4EB6-B098-2CD2EBB0C5C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1905,20 +1956,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -1927,7 +1983,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C3F8A9-2602-4F4B-A867-060E87C8DD13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1986,20 +2042,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -2008,7 +2069,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52293E1C-6544-430B-AAE4-9CC26443236A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2067,20 +2128,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -2089,7 +2155,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E751DF-D0EC-4757-8A0B-D71604149D23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2148,20 +2214,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -2170,7 +2241,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F297FF-2320-47E6-9137-961ECBC28898}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2229,20 +2300,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -2251,7 +2327,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C321252-03D5-461E-9ED5-DD69EB73C2C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2310,20 +2386,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -2332,7 +2413,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9199E34-AA77-4EA4-A988-5539861FDD89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2391,20 +2472,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -2413,7 +2499,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A5FABE-32F0-4EAB-A65B-7E25E2CD1F58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2472,20 +2558,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -2494,7 +2585,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7728699C-B2B3-4C5E-9361-1EB526D80136}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2553,20 +2644,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -2575,7 +2671,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A61F14D-AA63-41E9-BE0E-486B8FCC4246}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2634,20 +2730,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -2656,7 +2757,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEFEA25-0231-430F-A752-C4BC254B9A37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2715,20 +2816,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -2737,7 +2843,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B28C000-65B2-4E5D-B48F-F151B592F94B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2796,20 +2902,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -2818,7 +2929,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31731C24-8A2F-4CCE-A473-2A68E46C5ACD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2877,20 +2988,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -2899,7 +3015,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665BA9FA-9479-4F2B-9E21-6621FD361272}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2958,20 +3074,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -2980,7 +3101,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D2B689-62BF-4EFF-BB22-E26AA5CD9453}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3039,20 +3160,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -3061,7 +3187,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D5B046-90A3-42BC-860E-848287F3F4A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3120,20 +3246,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -3142,7 +3273,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A97E55-CD54-49C1-8FEB-8F73D0516F91}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3201,20 +3332,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -3223,7 +3359,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2F84DB-EFCC-4537-A5B8-28F5E6803911}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3282,20 +3418,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -3304,7 +3445,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A81FEF-6403-45AD-8667-F09528D2B1E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3363,20 +3504,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -3385,7 +3531,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AF0E8F-1429-41CB-A217-FE703798C6D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3444,20 +3590,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -3466,7 +3617,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8ED9FAE-A622-4013-9535-F6AEC2845431}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3525,20 +3676,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -3547,7 +3703,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C632F8AD-7DC4-482C-8B5D-E03E0D1A3590}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3606,20 +3762,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -3628,7 +3789,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830B4B11-1B7F-44CD-8EF9-5C0220C6BF30}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3687,20 +3848,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -3709,7 +3875,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46602A7B-995D-45B5-9A23-EEEFF8F553C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3768,20 +3934,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -3790,7 +3961,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C0C3F9-DC5E-49B5-AED2-542C029ABD25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3849,20 +4020,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -3871,7 +4047,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19848456-554D-4697-BEF5-5AFA9E287BB6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3930,20 +4106,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -3952,7 +4133,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9165DE61-7BC1-4302-A724-F2AC1EC303E0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4011,20 +4192,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -4033,7 +4219,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796B00EF-7971-4D90-8544-879AC812718B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4092,20 +4278,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -4114,7 +4305,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199C68A4-2754-4FEA-8258-82ACDBEBB37A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4173,20 +4364,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -4195,7 +4391,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93183E32-87AF-4B1B-8333-F87C55AA3BBE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4254,20 +4450,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -4276,7 +4477,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5D6BE9-E0C0-4072-8180-DEE5095E383D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4335,20 +4536,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -4357,7 +4563,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3B5378-9E93-4F81-89A0-4499C8D8AC8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4416,7 +4622,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -4712,7 +4918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4722,18 +4928,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8966E4-2275-4E9F-82CA-974F40DBA593}">
   <dimension ref="B1:AA1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <selection pane="topRight" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="24" customWidth="1"/>
     <col min="6" max="9" width="12.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="20" width="12.7109375" customWidth="1"/>
@@ -4744,63 +4950,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="72" t="s">
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="58" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="61"/>
-      <c r="U1" s="65" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="31" t="s">
+      <c r="V1" s="33"/>
+      <c r="W1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="31"/>
+      <c r="X1" s="46"/>
     </row>
     <row r="2" spans="2:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="78"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4819,7 +5025,7 @@
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="12" t="s">
@@ -4828,53 +5034,53 @@
       <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="62" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="66"/>
-      <c r="V2" s="70" t="s">
+      <c r="U2" s="49"/>
+      <c r="V2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
     </row>
     <row r="4" spans="2:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
@@ -4883,17 +5089,17 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="37" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="6">
         <f>((SUM(G4:P4)*10)*70%)+(AVERAGE(Q4:R4)*30%)</f>
         <v>43</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="78">
+        <v>1</v>
+      </c>
+      <c r="H4" s="78">
         <v>1</v>
       </c>
       <c r="I4" s="9">
@@ -4920,21 +5126,21 @@
       <c r="P4" s="9">
         <v>0</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="30">
         <f>S4-T4</f>
         <v>100</v>
       </c>
       <c r="R4" s="9">
         <v>0</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="30">
         <v>100</v>
       </c>
-      <c r="T4" s="63">
-        <v>0</v>
-      </c>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63" t="b">
+      <c r="T4" s="30">
+        <v>0</v>
+      </c>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W4" s="4"/>
@@ -4951,58 +5157,58 @@
       <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ref="F5:F39" si="0">((SUM(G5:P5)*10)*70%)+(AVERAGE(Q5:R5)*30%)</f>
         <v>43</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="63">
+      <c r="G5" s="78">
+        <v>1</v>
+      </c>
+      <c r="H5" s="78">
+        <v>1</v>
+      </c>
+      <c r="I5" s="78">
+        <v>1</v>
+      </c>
+      <c r="J5" s="78">
+        <v>1</v>
+      </c>
+      <c r="K5" s="78">
+        <v>0</v>
+      </c>
+      <c r="L5" s="78">
+        <v>0</v>
+      </c>
+      <c r="M5" s="78">
+        <v>0</v>
+      </c>
+      <c r="N5" s="78">
+        <v>0</v>
+      </c>
+      <c r="O5" s="78">
+        <v>0</v>
+      </c>
+      <c r="P5" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
         <f t="shared" ref="Q5:Q39" si="1">(S5-T5)</f>
         <v>100</v>
       </c>
       <c r="R5" s="9">
         <v>0</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="30">
         <v>100</v>
       </c>
-      <c r="T5" s="63">
-        <v>0</v>
-      </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63" t="b">
+      <c r="T5" s="30">
+        <v>0</v>
+      </c>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W5" s="4"/>
@@ -5021,58 +5227,58 @@
       <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="37" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>29.75</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="G6" s="78">
+        <v>1</v>
+      </c>
+      <c r="H6" s="78">
+        <v>1</v>
+      </c>
+      <c r="I6" s="78">
         <v>0.75</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="78">
         <v>0.75</v>
       </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="63">
+      <c r="K6" s="78">
+        <v>0</v>
+      </c>
+      <c r="L6" s="78">
+        <v>0</v>
+      </c>
+      <c r="M6" s="78">
+        <v>0</v>
+      </c>
+      <c r="N6" s="78">
+        <v>0</v>
+      </c>
+      <c r="O6" s="78">
+        <v>0</v>
+      </c>
+      <c r="P6" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
       </c>
-      <c r="S6" s="63">
+      <c r="S6" s="30">
         <v>50</v>
       </c>
-      <c r="T6" s="63">
+      <c r="T6" s="30">
         <v>15</v>
       </c>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63" t="b">
+      <c r="U6" s="30"/>
+      <c r="V6" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W6" s="4"/>
@@ -5091,58 +5297,58 @@
       <c r="D7" s="11">
         <v>4</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>35.75</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="G7" s="78">
+        <v>1</v>
+      </c>
+      <c r="H7" s="78">
+        <v>1</v>
+      </c>
+      <c r="I7" s="78">
         <v>0.75</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="78">
         <v>0.75</v>
       </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="63">
+      <c r="K7" s="78">
+        <v>0</v>
+      </c>
+      <c r="L7" s="78">
+        <v>0</v>
+      </c>
+      <c r="M7" s="78">
+        <v>0</v>
+      </c>
+      <c r="N7" s="78">
+        <v>0</v>
+      </c>
+      <c r="O7" s="78">
+        <v>0</v>
+      </c>
+      <c r="P7" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
       </c>
-      <c r="S7" s="63">
+      <c r="S7" s="30">
         <v>80</v>
       </c>
-      <c r="T7" s="63">
+      <c r="T7" s="30">
         <v>5</v>
       </c>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63" t="b">
+      <c r="U7" s="30"/>
+      <c r="V7" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W7" s="4"/>
@@ -5161,58 +5367,58 @@
       <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="G8" s="78">
+        <v>1</v>
+      </c>
+      <c r="H8" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" s="78">
         <v>0.75</v>
       </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="63">
+      <c r="J8" s="78">
+        <v>1</v>
+      </c>
+      <c r="K8" s="78">
+        <v>0</v>
+      </c>
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="78">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78">
+        <v>0</v>
+      </c>
+      <c r="O8" s="78">
+        <v>0</v>
+      </c>
+      <c r="P8" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
       </c>
-      <c r="S8" s="63">
+      <c r="S8" s="30">
         <v>50</v>
       </c>
-      <c r="T8" s="63">
+      <c r="T8" s="30">
         <v>5</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63" t="b">
+      <c r="U8" s="30"/>
+      <c r="V8" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W8" s="4"/>
@@ -5231,58 +5437,58 @@
       <c r="D9" s="11">
         <v>6</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="63">
+      <c r="G9" s="78">
+        <v>1</v>
+      </c>
+      <c r="H9" s="78">
+        <v>1</v>
+      </c>
+      <c r="I9" s="78">
+        <v>1</v>
+      </c>
+      <c r="J9" s="78">
+        <v>1</v>
+      </c>
+      <c r="K9" s="78">
+        <v>0</v>
+      </c>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="78">
+        <v>0</v>
+      </c>
+      <c r="N9" s="78">
+        <v>0</v>
+      </c>
+      <c r="O9" s="78">
+        <v>0</v>
+      </c>
+      <c r="P9" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
       </c>
-      <c r="S9" s="63">
+      <c r="S9" s="30">
         <v>100</v>
       </c>
-      <c r="T9" s="63">
-        <v>0</v>
-      </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63" t="b">
+      <c r="T9" s="30">
+        <v>0</v>
+      </c>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W9" s="4"/>
@@ -5295,58 +5501,58 @@
       <c r="D10" s="11">
         <v>7</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="G10" s="78">
+        <v>1</v>
+      </c>
+      <c r="H10" s="78">
+        <v>1</v>
+      </c>
+      <c r="I10" s="78">
+        <v>1</v>
+      </c>
+      <c r="J10" s="78">
         <v>0.75</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="63">
+      <c r="K10" s="78">
+        <v>0</v>
+      </c>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="78">
+        <v>0</v>
+      </c>
+      <c r="N10" s="78">
+        <v>0</v>
+      </c>
+      <c r="O10" s="78">
+        <v>0</v>
+      </c>
+      <c r="P10" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
       </c>
-      <c r="S10" s="63">
+      <c r="S10" s="30">
         <v>70</v>
       </c>
-      <c r="T10" s="63">
+      <c r="T10" s="30">
         <v>15</v>
       </c>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63" t="b">
+      <c r="U10" s="30"/>
+      <c r="V10" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W10" s="4"/>
@@ -5359,63 +5565,63 @@
       <c r="D11" s="11">
         <v>8</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="63">
+      <c r="G11" s="78">
+        <v>1</v>
+      </c>
+      <c r="H11" s="78">
+        <v>1</v>
+      </c>
+      <c r="I11" s="78">
+        <v>1</v>
+      </c>
+      <c r="J11" s="78">
+        <v>1</v>
+      </c>
+      <c r="K11" s="78">
+        <v>0</v>
+      </c>
+      <c r="L11" s="78">
+        <v>0</v>
+      </c>
+      <c r="M11" s="78">
+        <v>0</v>
+      </c>
+      <c r="N11" s="78">
+        <v>0</v>
+      </c>
+      <c r="O11" s="78">
+        <v>0</v>
+      </c>
+      <c r="P11" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R11" s="9">
         <v>0</v>
       </c>
-      <c r="S11" s="63">
+      <c r="S11" s="30">
         <v>100</v>
       </c>
-      <c r="T11" s="63">
-        <v>0</v>
-      </c>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63" t="b">
+      <c r="T11" s="30">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="75"/>
+      <c r="Y11" s="36"/>
     </row>
     <row r="12" spans="2:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
@@ -5424,58 +5630,58 @@
       <c r="D12" s="11">
         <v>9</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>33.25</v>
       </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="G12" s="78">
+        <v>1</v>
+      </c>
+      <c r="H12" s="78">
+        <v>1</v>
+      </c>
+      <c r="I12" s="78">
         <v>0.75</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="78">
         <v>0.5</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="63">
+      <c r="K12" s="78">
+        <v>0</v>
+      </c>
+      <c r="L12" s="78">
+        <v>0</v>
+      </c>
+      <c r="M12" s="78">
+        <v>0</v>
+      </c>
+      <c r="N12" s="78">
+        <v>0</v>
+      </c>
+      <c r="O12" s="78">
+        <v>0</v>
+      </c>
+      <c r="P12" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="R12" s="9">
         <v>0</v>
       </c>
-      <c r="S12" s="63">
+      <c r="S12" s="30">
         <v>80</v>
       </c>
-      <c r="T12" s="63">
+      <c r="T12" s="30">
         <v>10</v>
       </c>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63" t="b">
+      <c r="U12" s="30"/>
+      <c r="V12" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W12" s="4"/>
@@ -5488,58 +5694,58 @@
       <c r="D13" s="11">
         <v>10</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="63">
+      <c r="G13" s="78">
+        <v>1</v>
+      </c>
+      <c r="H13" s="78">
+        <v>1</v>
+      </c>
+      <c r="I13" s="78">
+        <v>1</v>
+      </c>
+      <c r="J13" s="78">
+        <v>1</v>
+      </c>
+      <c r="K13" s="78">
+        <v>0</v>
+      </c>
+      <c r="L13" s="78">
+        <v>0</v>
+      </c>
+      <c r="M13" s="78">
+        <v>0</v>
+      </c>
+      <c r="N13" s="78">
+        <v>0</v>
+      </c>
+      <c r="O13" s="78">
+        <v>0</v>
+      </c>
+      <c r="P13" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="R13" s="9">
         <v>0</v>
       </c>
-      <c r="S13" s="63">
+      <c r="S13" s="30">
         <v>80</v>
       </c>
-      <c r="T13" s="63">
+      <c r="T13" s="30">
         <v>20</v>
       </c>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63" t="b">
+      <c r="U13" s="30"/>
+      <c r="V13" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W13" s="4"/>
@@ -5552,58 +5758,58 @@
       <c r="D14" s="11">
         <v>11</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="63">
+      <c r="G14" s="78">
+        <v>1</v>
+      </c>
+      <c r="H14" s="78">
+        <v>1</v>
+      </c>
+      <c r="I14" s="78">
+        <v>1</v>
+      </c>
+      <c r="J14" s="78">
+        <v>1</v>
+      </c>
+      <c r="K14" s="78">
+        <v>0</v>
+      </c>
+      <c r="L14" s="78">
+        <v>0</v>
+      </c>
+      <c r="M14" s="78">
+        <v>0</v>
+      </c>
+      <c r="N14" s="78">
+        <v>0</v>
+      </c>
+      <c r="O14" s="78">
+        <v>0</v>
+      </c>
+      <c r="P14" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R14" s="9">
         <v>0</v>
       </c>
-      <c r="S14" s="63">
+      <c r="S14" s="30">
         <v>100</v>
       </c>
-      <c r="T14" s="63">
-        <v>0</v>
-      </c>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63" t="b">
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W14" s="4"/>
@@ -5616,65 +5822,65 @@
       <c r="D15" s="11">
         <v>12</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="G15" s="78">
+        <v>1</v>
+      </c>
+      <c r="H15" s="78">
+        <v>1</v>
+      </c>
+      <c r="I15" s="78">
+        <v>1</v>
+      </c>
+      <c r="J15" s="78">
         <v>0.75</v>
       </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="63">
+      <c r="K15" s="78">
+        <v>0</v>
+      </c>
+      <c r="L15" s="78">
+        <v>0</v>
+      </c>
+      <c r="M15" s="78">
+        <v>0</v>
+      </c>
+      <c r="N15" s="78">
+        <v>0</v>
+      </c>
+      <c r="O15" s="78">
+        <v>0</v>
+      </c>
+      <c r="P15" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="R15" s="9">
         <v>0</v>
       </c>
-      <c r="S15" s="63">
+      <c r="S15" s="30">
         <v>60</v>
       </c>
-      <c r="T15" s="63">
+      <c r="T15" s="30">
         <v>15</v>
       </c>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63" t="b">
+      <c r="U15" s="30"/>
+      <c r="V15" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="2:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="3">
@@ -5683,58 +5889,58 @@
       <c r="D16" s="11">
         <v>13</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="63">
+      <c r="G16" s="78">
+        <v>1</v>
+      </c>
+      <c r="H16" s="78">
+        <v>1</v>
+      </c>
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="78">
+        <v>0</v>
+      </c>
+      <c r="K16" s="78">
+        <v>0</v>
+      </c>
+      <c r="L16" s="78">
+        <v>0</v>
+      </c>
+      <c r="M16" s="78">
+        <v>0</v>
+      </c>
+      <c r="N16" s="78">
+        <v>0</v>
+      </c>
+      <c r="O16" s="78">
+        <v>0</v>
+      </c>
+      <c r="P16" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="9">
         <v>0</v>
       </c>
-      <c r="S16" s="63">
-        <v>0</v>
-      </c>
-      <c r="T16" s="63">
-        <v>0</v>
-      </c>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63" t="b">
+      <c r="S16" s="30">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30" t="b">
         <v>0</v>
       </c>
       <c r="W16" s="4"/>
@@ -5747,58 +5953,58 @@
       <c r="D17" s="11">
         <v>14</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="G17" s="78">
+        <v>1</v>
+      </c>
+      <c r="H17" s="78">
+        <v>1</v>
+      </c>
+      <c r="I17" s="78">
         <v>0.5</v>
       </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="63">
+      <c r="J17" s="78">
+        <v>1</v>
+      </c>
+      <c r="K17" s="78">
+        <v>0</v>
+      </c>
+      <c r="L17" s="78">
+        <v>0</v>
+      </c>
+      <c r="M17" s="78">
+        <v>0</v>
+      </c>
+      <c r="N17" s="78">
+        <v>0</v>
+      </c>
+      <c r="O17" s="78">
+        <v>0</v>
+      </c>
+      <c r="P17" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
       </c>
-      <c r="S17" s="63">
+      <c r="S17" s="30">
         <v>90</v>
       </c>
-      <c r="T17" s="63">
+      <c r="T17" s="30">
         <v>10</v>
       </c>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63" t="b">
+      <c r="U17" s="30"/>
+      <c r="V17" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W17" s="4"/>
@@ -5811,65 +6017,65 @@
       <c r="D18" s="11">
         <v>15</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="G18" s="78">
+        <v>1</v>
+      </c>
+      <c r="H18" s="78">
+        <v>1</v>
+      </c>
+      <c r="I18" s="78">
         <v>0.75</v>
       </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="63">
+      <c r="J18" s="78">
+        <v>1</v>
+      </c>
+      <c r="K18" s="78">
+        <v>0</v>
+      </c>
+      <c r="L18" s="78">
+        <v>0</v>
+      </c>
+      <c r="M18" s="78">
+        <v>0</v>
+      </c>
+      <c r="N18" s="78">
+        <v>0</v>
+      </c>
+      <c r="O18" s="78">
+        <v>0</v>
+      </c>
+      <c r="P18" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="30">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="R18" s="9">
         <v>0</v>
       </c>
-      <c r="S18" s="63">
+      <c r="S18" s="30">
         <v>90</v>
       </c>
-      <c r="T18" s="63">
+      <c r="T18" s="30">
         <v>5</v>
       </c>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63" t="b">
+      <c r="U18" s="30"/>
+      <c r="V18" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="2:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="3">
@@ -5878,58 +6084,58 @@
       <c r="D19" s="11">
         <v>16</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="38" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>26.25</v>
       </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="G19" s="78">
+        <v>1</v>
+      </c>
+      <c r="H19" s="78">
+        <v>1</v>
+      </c>
+      <c r="I19" s="78">
         <v>0.75</v>
       </c>
-      <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="63">
+      <c r="J19" s="78">
+        <v>1</v>
+      </c>
+      <c r="K19" s="78">
+        <v>0</v>
+      </c>
+      <c r="L19" s="78">
+        <v>0</v>
+      </c>
+      <c r="M19" s="78">
+        <v>0</v>
+      </c>
+      <c r="N19" s="78">
+        <v>0</v>
+      </c>
+      <c r="O19" s="78">
+        <v>0</v>
+      </c>
+      <c r="P19" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
       </c>
-      <c r="S19" s="63">
-        <v>0</v>
-      </c>
-      <c r="T19" s="63">
-        <v>0</v>
-      </c>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63" t="b">
+      <c r="S19" s="30">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30" t="b">
         <v>0</v>
       </c>
       <c r="W19" s="4"/>
@@ -5942,58 +6148,58 @@
       <c r="D20" s="11">
         <v>17</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="37" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>37.25</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="G20" s="78">
+        <v>1</v>
+      </c>
+      <c r="H20" s="78">
+        <v>1</v>
+      </c>
+      <c r="I20" s="78">
         <v>0.75</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="78">
         <v>0.75</v>
       </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="63">
+      <c r="K20" s="78">
+        <v>0</v>
+      </c>
+      <c r="L20" s="78">
+        <v>0</v>
+      </c>
+      <c r="M20" s="78">
+        <v>0</v>
+      </c>
+      <c r="N20" s="78">
+        <v>0</v>
+      </c>
+      <c r="O20" s="78">
+        <v>0</v>
+      </c>
+      <c r="P20" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="30">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
       </c>
-      <c r="S20" s="63">
+      <c r="S20" s="30">
         <v>90</v>
       </c>
-      <c r="T20" s="63">
+      <c r="T20" s="30">
         <v>5</v>
       </c>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63" t="b">
+      <c r="U20" s="30"/>
+      <c r="V20" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W20" s="4"/>
@@ -6006,65 +6212,65 @@
       <c r="D21" s="11">
         <v>18</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="G21" s="78">
+        <v>1</v>
+      </c>
+      <c r="H21" s="78">
+        <v>1</v>
+      </c>
+      <c r="I21" s="78">
+        <v>1</v>
+      </c>
+      <c r="J21" s="78">
         <v>0.75</v>
       </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="63">
+      <c r="K21" s="78">
+        <v>0</v>
+      </c>
+      <c r="L21" s="78">
+        <v>0</v>
+      </c>
+      <c r="M21" s="78">
+        <v>0</v>
+      </c>
+      <c r="N21" s="78">
+        <v>0</v>
+      </c>
+      <c r="O21" s="78">
+        <v>0</v>
+      </c>
+      <c r="P21" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="30">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="R21" s="9">
         <v>0</v>
       </c>
-      <c r="S21" s="63">
+      <c r="S21" s="30">
         <v>50</v>
       </c>
-      <c r="T21" s="63">
+      <c r="T21" s="30">
         <v>15</v>
       </c>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63" t="b">
+      <c r="U21" s="30"/>
+      <c r="V21" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="2:24" s="41" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="2:24" s="24" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="3">
@@ -6073,62 +6279,62 @@
       <c r="D22" s="11">
         <v>19</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="63">
+      <c r="G22" s="78">
+        <v>1</v>
+      </c>
+      <c r="H22" s="78">
+        <v>1</v>
+      </c>
+      <c r="I22" s="78">
+        <v>0</v>
+      </c>
+      <c r="J22" s="78">
+        <v>0</v>
+      </c>
+      <c r="K22" s="78">
+        <v>0</v>
+      </c>
+      <c r="L22" s="78">
+        <v>0</v>
+      </c>
+      <c r="M22" s="78">
+        <v>0</v>
+      </c>
+      <c r="N22" s="78">
+        <v>0</v>
+      </c>
+      <c r="O22" s="78">
+        <v>0</v>
+      </c>
+      <c r="P22" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="9">
         <v>0</v>
       </c>
-      <c r="S22" s="63">
-        <v>0</v>
-      </c>
-      <c r="T22" s="63">
-        <v>0</v>
-      </c>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
+      <c r="S22" s="30">
+        <v>0</v>
+      </c>
+      <c r="T22" s="30">
+        <v>0</v>
+      </c>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
     </row>
     <row r="23" spans="2:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
@@ -6137,58 +6343,58 @@
       <c r="D23" s="11">
         <v>20</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>36.25</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="G23" s="78">
+        <v>1</v>
+      </c>
+      <c r="H23" s="78">
+        <v>1</v>
+      </c>
+      <c r="I23" s="78">
         <v>0.75</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="78">
         <v>0.5</v>
       </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="63">
+      <c r="K23" s="78">
+        <v>0</v>
+      </c>
+      <c r="L23" s="78">
+        <v>0</v>
+      </c>
+      <c r="M23" s="78">
+        <v>0</v>
+      </c>
+      <c r="N23" s="78">
+        <v>0</v>
+      </c>
+      <c r="O23" s="78">
+        <v>0</v>
+      </c>
+      <c r="P23" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
       </c>
-      <c r="S23" s="63">
+      <c r="S23" s="30">
         <v>90</v>
       </c>
-      <c r="T23" s="63">
-        <v>0</v>
-      </c>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63" t="b">
+      <c r="T23" s="30">
+        <v>0</v>
+      </c>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W23" s="4"/>
@@ -6201,58 +6407,58 @@
       <c r="D24" s="11">
         <v>21</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="G24" s="78">
+        <v>1</v>
+      </c>
+      <c r="H24" s="78">
+        <v>1</v>
+      </c>
+      <c r="I24" s="78">
         <v>0.75</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="78">
         <v>0.75</v>
       </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="63">
+      <c r="K24" s="78">
+        <v>0</v>
+      </c>
+      <c r="L24" s="78">
+        <v>0</v>
+      </c>
+      <c r="M24" s="78">
+        <v>0</v>
+      </c>
+      <c r="N24" s="78">
+        <v>0</v>
+      </c>
+      <c r="O24" s="78">
+        <v>0</v>
+      </c>
+      <c r="P24" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="30">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
       </c>
-      <c r="S24" s="63">
+      <c r="S24" s="30">
         <v>70</v>
       </c>
-      <c r="T24" s="63">
-        <v>0</v>
-      </c>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63" t="b">
+      <c r="T24" s="30">
+        <v>0</v>
+      </c>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W24" s="4"/>
@@ -6265,58 +6471,58 @@
       <c r="D25" s="11">
         <v>22</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>33.25</v>
       </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="G25" s="78">
+        <v>1</v>
+      </c>
+      <c r="H25" s="78">
+        <v>1</v>
+      </c>
+      <c r="I25" s="78">
         <v>0.5</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="78">
         <v>0.75</v>
       </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="63">
+      <c r="K25" s="78">
+        <v>0</v>
+      </c>
+      <c r="L25" s="78">
+        <v>0</v>
+      </c>
+      <c r="M25" s="78">
+        <v>0</v>
+      </c>
+      <c r="N25" s="78">
+        <v>0</v>
+      </c>
+      <c r="O25" s="78">
+        <v>0</v>
+      </c>
+      <c r="P25" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="30">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="R25" s="9">
         <v>0</v>
       </c>
-      <c r="S25" s="63">
+      <c r="S25" s="30">
         <v>80</v>
       </c>
-      <c r="T25" s="63">
+      <c r="T25" s="30">
         <v>10</v>
       </c>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63" t="b">
+      <c r="U25" s="30"/>
+      <c r="V25" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W25" s="4"/>
@@ -6329,58 +6535,58 @@
       <c r="D26" s="11">
         <v>23</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="G26" s="78">
+        <v>1</v>
+      </c>
+      <c r="H26" s="78">
+        <v>1</v>
+      </c>
+      <c r="I26" s="78">
         <v>0.75</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="78">
         <v>0.75</v>
       </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-      <c r="P26" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="63">
+      <c r="K26" s="78">
+        <v>0</v>
+      </c>
+      <c r="L26" s="78">
+        <v>0</v>
+      </c>
+      <c r="M26" s="78">
+        <v>0</v>
+      </c>
+      <c r="N26" s="78">
+        <v>0</v>
+      </c>
+      <c r="O26" s="78">
+        <v>0</v>
+      </c>
+      <c r="P26" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="30">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
       </c>
-      <c r="S26" s="63">
+      <c r="S26" s="30">
         <v>70</v>
       </c>
-      <c r="T26" s="63">
+      <c r="T26" s="30">
         <v>10</v>
       </c>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63" t="b">
+      <c r="U26" s="30"/>
+      <c r="V26" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W26" s="4"/>
@@ -6393,58 +6599,58 @@
       <c r="D27" s="11">
         <v>24</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9">
+      <c r="G27" s="78">
+        <v>1</v>
+      </c>
+      <c r="H27" s="78">
+        <v>1</v>
+      </c>
+      <c r="I27" s="78">
+        <v>1</v>
+      </c>
+      <c r="J27" s="78">
         <v>0.75</v>
       </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="63">
+      <c r="K27" s="78">
+        <v>0</v>
+      </c>
+      <c r="L27" s="78">
+        <v>0</v>
+      </c>
+      <c r="M27" s="78">
+        <v>0</v>
+      </c>
+      <c r="N27" s="78">
+        <v>0</v>
+      </c>
+      <c r="O27" s="78">
+        <v>0</v>
+      </c>
+      <c r="P27" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="30">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
       </c>
-      <c r="S27" s="63">
+      <c r="S27" s="30">
         <v>50</v>
       </c>
-      <c r="T27" s="63">
+      <c r="T27" s="30">
         <v>15</v>
       </c>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63" t="b">
+      <c r="U27" s="30"/>
+      <c r="V27" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W27" s="4"/>
@@ -6457,58 +6663,58 @@
       <c r="D28" s="11">
         <v>25</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="37" t="s">
         <v>42</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>32.75</v>
       </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="G28" s="78">
+        <v>1</v>
+      </c>
+      <c r="H28" s="78">
+        <v>1</v>
+      </c>
+      <c r="I28" s="78">
         <v>0.75</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="78">
         <v>0.75</v>
       </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="63">
+      <c r="K28" s="78">
+        <v>0</v>
+      </c>
+      <c r="L28" s="78">
+        <v>0</v>
+      </c>
+      <c r="M28" s="78">
+        <v>0</v>
+      </c>
+      <c r="N28" s="78">
+        <v>0</v>
+      </c>
+      <c r="O28" s="78">
+        <v>0</v>
+      </c>
+      <c r="P28" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="30">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
       </c>
-      <c r="S28" s="63">
+      <c r="S28" s="30">
         <v>70</v>
       </c>
-      <c r="T28" s="63">
+      <c r="T28" s="30">
         <v>15</v>
       </c>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63" t="b">
+      <c r="U28" s="30"/>
+      <c r="V28" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W28" s="4"/>
@@ -6521,58 +6727,58 @@
       <c r="D29" s="11">
         <v>26</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="G29" s="78">
+        <v>1</v>
+      </c>
+      <c r="H29" s="78">
+        <v>1</v>
+      </c>
+      <c r="I29" s="78">
         <v>0.75</v>
       </c>
-      <c r="J29" s="9">
-        <v>1</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="63">
+      <c r="J29" s="78">
+        <v>1</v>
+      </c>
+      <c r="K29" s="78">
+        <v>0</v>
+      </c>
+      <c r="L29" s="78">
+        <v>0</v>
+      </c>
+      <c r="M29" s="78">
+        <v>0</v>
+      </c>
+      <c r="N29" s="78">
+        <v>0</v>
+      </c>
+      <c r="O29" s="78">
+        <v>0</v>
+      </c>
+      <c r="P29" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R29" s="9">
         <v>0</v>
       </c>
-      <c r="S29" s="63">
+      <c r="S29" s="30">
         <v>45</v>
       </c>
-      <c r="T29" s="63">
+      <c r="T29" s="30">
         <v>30</v>
       </c>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63" t="b">
+      <c r="U29" s="30"/>
+      <c r="V29" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W29" s="4"/>
@@ -6585,58 +6791,58 @@
       <c r="D30" s="11">
         <v>27</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="37" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0</v>
-      </c>
-      <c r="P30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="63">
+      <c r="G30" s="78">
+        <v>1</v>
+      </c>
+      <c r="H30" s="78">
+        <v>1</v>
+      </c>
+      <c r="I30" s="78">
+        <v>1</v>
+      </c>
+      <c r="J30" s="78">
+        <v>1</v>
+      </c>
+      <c r="K30" s="78">
+        <v>0</v>
+      </c>
+      <c r="L30" s="78">
+        <v>0</v>
+      </c>
+      <c r="M30" s="78">
+        <v>0</v>
+      </c>
+      <c r="N30" s="78">
+        <v>0</v>
+      </c>
+      <c r="O30" s="78">
+        <v>0</v>
+      </c>
+      <c r="P30" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="30">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
       </c>
-      <c r="S30" s="63">
+      <c r="S30" s="30">
         <v>70</v>
       </c>
-      <c r="T30" s="63">
+      <c r="T30" s="30">
         <v>10</v>
       </c>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63" t="b">
+      <c r="U30" s="30"/>
+      <c r="V30" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W30" s="4"/>
@@ -6649,58 +6855,58 @@
       <c r="D31" s="11">
         <v>28</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="23" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>38.25</v>
       </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1</v>
-      </c>
-      <c r="I31" s="9">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="G31" s="78">
+        <v>1</v>
+      </c>
+      <c r="H31" s="78">
+        <v>1</v>
+      </c>
+      <c r="I31" s="78">
+        <v>1</v>
+      </c>
+      <c r="J31" s="78">
         <v>0.75</v>
       </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="63">
+      <c r="K31" s="78">
+        <v>0</v>
+      </c>
+      <c r="L31" s="78">
+        <v>0</v>
+      </c>
+      <c r="M31" s="78">
+        <v>0</v>
+      </c>
+      <c r="N31" s="78">
+        <v>0</v>
+      </c>
+      <c r="O31" s="78">
+        <v>0</v>
+      </c>
+      <c r="P31" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="30">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R31" s="9">
         <v>0</v>
       </c>
-      <c r="S31" s="63">
+      <c r="S31" s="30">
         <v>90</v>
       </c>
-      <c r="T31" s="63">
+      <c r="T31" s="30">
         <v>10</v>
       </c>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63" t="b">
+      <c r="U31" s="30"/>
+      <c r="V31" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W31" s="4"/>
@@ -6713,58 +6919,58 @@
       <c r="D32" s="11">
         <v>29</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>0</v>
-      </c>
-      <c r="M32" s="9">
-        <v>0</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <v>0</v>
-      </c>
-      <c r="P32" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="63">
+      <c r="G32" s="78">
+        <v>1</v>
+      </c>
+      <c r="H32" s="78">
+        <v>1</v>
+      </c>
+      <c r="I32" s="78">
+        <v>1</v>
+      </c>
+      <c r="J32" s="78">
+        <v>1</v>
+      </c>
+      <c r="K32" s="78">
+        <v>0</v>
+      </c>
+      <c r="L32" s="78">
+        <v>0</v>
+      </c>
+      <c r="M32" s="78">
+        <v>0</v>
+      </c>
+      <c r="N32" s="78">
+        <v>0</v>
+      </c>
+      <c r="O32" s="78">
+        <v>0</v>
+      </c>
+      <c r="P32" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="30">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R32" s="9">
         <v>0</v>
       </c>
-      <c r="S32" s="63">
+      <c r="S32" s="30">
         <v>90</v>
       </c>
-      <c r="T32" s="63">
+      <c r="T32" s="30">
         <v>10</v>
       </c>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63" t="b">
+      <c r="U32" s="30"/>
+      <c r="V32" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W32" s="4"/>
@@ -6777,58 +6983,58 @@
       <c r="D33" s="11">
         <v>30</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>41.25</v>
       </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="G33" s="78">
+        <v>1</v>
+      </c>
+      <c r="H33" s="78">
+        <v>1</v>
+      </c>
+      <c r="I33" s="78">
         <v>0.75</v>
       </c>
-      <c r="J33" s="9">
-        <v>1</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0</v>
-      </c>
-      <c r="M33" s="9">
-        <v>0</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-      <c r="P33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="63">
+      <c r="J33" s="78">
+        <v>1</v>
+      </c>
+      <c r="K33" s="78">
+        <v>0</v>
+      </c>
+      <c r="L33" s="78">
+        <v>0</v>
+      </c>
+      <c r="M33" s="78">
+        <v>0</v>
+      </c>
+      <c r="N33" s="78">
+        <v>0</v>
+      </c>
+      <c r="O33" s="78">
+        <v>0</v>
+      </c>
+      <c r="P33" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="30">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R33" s="9">
         <v>0</v>
       </c>
-      <c r="S33" s="63">
+      <c r="S33" s="30">
         <v>100</v>
       </c>
-      <c r="T33" s="63">
-        <v>0</v>
-      </c>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63" t="b">
+      <c r="T33" s="30">
+        <v>0</v>
+      </c>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W33" s="4"/>
@@ -6841,58 +7047,58 @@
       <c r="D34" s="11">
         <v>31</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="9">
-        <v>1</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="63">
+      <c r="G34" s="78">
+        <v>1</v>
+      </c>
+      <c r="H34" s="78">
+        <v>1</v>
+      </c>
+      <c r="I34" s="78">
+        <v>1</v>
+      </c>
+      <c r="J34" s="78">
+        <v>1</v>
+      </c>
+      <c r="K34" s="78">
+        <v>0</v>
+      </c>
+      <c r="L34" s="78">
+        <v>0</v>
+      </c>
+      <c r="M34" s="78">
+        <v>0</v>
+      </c>
+      <c r="N34" s="78">
+        <v>0</v>
+      </c>
+      <c r="O34" s="78">
+        <v>0</v>
+      </c>
+      <c r="P34" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="30">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="R34" s="9">
         <v>0</v>
       </c>
-      <c r="S34" s="63">
+      <c r="S34" s="30">
         <v>55</v>
       </c>
-      <c r="T34" s="63">
+      <c r="T34" s="30">
         <v>15</v>
       </c>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63" t="b">
+      <c r="U34" s="30"/>
+      <c r="V34" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W34" s="4"/>
@@ -6905,58 +7111,58 @@
       <c r="D35" s="11">
         <v>32</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="23" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>39.75</v>
       </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1</v>
-      </c>
-      <c r="I35" s="9">
-        <v>1</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="G35" s="78">
+        <v>1</v>
+      </c>
+      <c r="H35" s="78">
+        <v>1</v>
+      </c>
+      <c r="I35" s="78">
+        <v>1</v>
+      </c>
+      <c r="J35" s="78">
         <v>0.75</v>
       </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="63">
+      <c r="K35" s="78">
+        <v>0</v>
+      </c>
+      <c r="L35" s="78">
+        <v>0</v>
+      </c>
+      <c r="M35" s="78">
+        <v>0</v>
+      </c>
+      <c r="N35" s="78">
+        <v>0</v>
+      </c>
+      <c r="O35" s="78">
+        <v>0</v>
+      </c>
+      <c r="P35" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="30">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="R35" s="9">
         <v>0</v>
       </c>
-      <c r="S35" s="63">
+      <c r="S35" s="30">
         <v>90</v>
       </c>
-      <c r="T35" s="63">
-        <v>0</v>
-      </c>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63" t="b">
+      <c r="T35" s="30">
+        <v>0</v>
+      </c>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W35" s="4"/>
@@ -6969,58 +7175,58 @@
       <c r="D36" s="11">
         <v>33</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="37" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>32.25</v>
       </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="9">
-        <v>1</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="G36" s="78">
+        <v>1</v>
+      </c>
+      <c r="H36" s="78">
+        <v>1</v>
+      </c>
+      <c r="I36" s="78">
+        <v>1</v>
+      </c>
+      <c r="J36" s="78">
         <v>0.75</v>
       </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-      <c r="P36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="63">
+      <c r="K36" s="78">
+        <v>0</v>
+      </c>
+      <c r="L36" s="78">
+        <v>0</v>
+      </c>
+      <c r="M36" s="78">
+        <v>0</v>
+      </c>
+      <c r="N36" s="78">
+        <v>0</v>
+      </c>
+      <c r="O36" s="78">
+        <v>0</v>
+      </c>
+      <c r="P36" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="30">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="R36" s="9">
         <v>0</v>
       </c>
-      <c r="S36" s="63">
+      <c r="S36" s="30">
         <v>60</v>
       </c>
-      <c r="T36" s="63">
+      <c r="T36" s="30">
         <v>20</v>
       </c>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63" t="b">
+      <c r="U36" s="30"/>
+      <c r="V36" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W36" s="4"/>
@@ -7033,58 +7239,58 @@
       <c r="D37" s="11">
         <v>34</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="G37" s="78">
+        <v>1</v>
+      </c>
+      <c r="H37" s="78">
+        <v>1</v>
+      </c>
+      <c r="I37" s="78">
         <v>0.5</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="78">
         <v>0.75</v>
       </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-      <c r="P37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="63">
+      <c r="K37" s="78">
+        <v>0</v>
+      </c>
+      <c r="L37" s="78">
+        <v>0</v>
+      </c>
+      <c r="M37" s="78">
+        <v>0</v>
+      </c>
+      <c r="N37" s="78">
+        <v>0</v>
+      </c>
+      <c r="O37" s="78">
+        <v>0</v>
+      </c>
+      <c r="P37" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="30">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="R37" s="9">
         <v>0</v>
       </c>
-      <c r="S37" s="63">
+      <c r="S37" s="30">
         <v>45</v>
       </c>
-      <c r="T37" s="63">
+      <c r="T37" s="30">
         <v>10</v>
       </c>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63" t="b">
+      <c r="U37" s="30"/>
+      <c r="V37" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W37" s="4"/>
@@ -7097,58 +7303,58 @@
       <c r="D38" s="11">
         <v>35</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G38" s="6">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9">
-        <v>1</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="G38" s="78">
+        <v>1</v>
+      </c>
+      <c r="H38" s="78">
+        <v>1</v>
+      </c>
+      <c r="I38" s="78">
         <v>0.75</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="78">
         <v>0.75</v>
       </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-      <c r="P38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="63">
+      <c r="K38" s="78">
+        <v>0</v>
+      </c>
+      <c r="L38" s="78">
+        <v>0</v>
+      </c>
+      <c r="M38" s="78">
+        <v>0</v>
+      </c>
+      <c r="N38" s="78">
+        <v>0</v>
+      </c>
+      <c r="O38" s="78">
+        <v>0</v>
+      </c>
+      <c r="P38" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="30">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="R38" s="9">
         <v>0</v>
       </c>
-      <c r="S38" s="63">
+      <c r="S38" s="30">
         <v>70</v>
       </c>
-      <c r="T38" s="63">
+      <c r="T38" s="30">
         <v>20</v>
       </c>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63" t="b">
+      <c r="U38" s="30"/>
+      <c r="V38" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W38" s="4"/>
@@ -7161,155 +7367,155 @@
       <c r="D39" s="11">
         <v>36</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="23" t="s">
         <v>53</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>32.25</v>
       </c>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="G39" s="78">
+        <v>1</v>
+      </c>
+      <c r="H39" s="78">
+        <v>1</v>
+      </c>
+      <c r="I39" s="78">
         <v>0.75</v>
       </c>
-      <c r="J39" s="9">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-      <c r="P39" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="63">
+      <c r="J39" s="78">
+        <v>1</v>
+      </c>
+      <c r="K39" s="78">
+        <v>0</v>
+      </c>
+      <c r="L39" s="78">
+        <v>0</v>
+      </c>
+      <c r="M39" s="78">
+        <v>0</v>
+      </c>
+      <c r="N39" s="78">
+        <v>0</v>
+      </c>
+      <c r="O39" s="78">
+        <v>0</v>
+      </c>
+      <c r="P39" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="30">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="R39" s="9">
         <v>0</v>
       </c>
-      <c r="S39" s="63">
+      <c r="S39" s="30">
         <v>55</v>
       </c>
-      <c r="T39" s="63">
+      <c r="T39" s="30">
         <v>15</v>
       </c>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63" t="b">
+      <c r="U39" s="30"/>
+      <c r="V39" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
     <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="42">
+      <c r="G40" s="25">
         <f>(AVERAGE(G4:G39)*100)</f>
         <v>100</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="25">
         <f t="shared" ref="H40:R40" si="2">(AVERAGE(H4:H39)*100)</f>
         <v>100</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="25">
         <f t="shared" si="2"/>
         <v>79.861111111111114</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J40" s="25">
         <f t="shared" si="2"/>
         <v>80.555555555555557</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="44">
+      <c r="L40" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M40" s="44">
+      <c r="M40" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="44">
+      <c r="N40" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O40" s="44">
+      <c r="O40" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="44">
+      <c r="P40" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="47">
+      <c r="Q40" s="54">
         <f>(AVERAGE(Q4:Q39)*1)</f>
         <v>60.555555555555557</v>
       </c>
-      <c r="R40" s="48">
+      <c r="R40" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S40" s="21"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="64">
+      <c r="S40" s="20"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="31">
         <f>COUNTIF(V4:V39,"TRUE")</f>
         <v>33</v>
       </c>
-      <c r="V40" s="64"/>
+      <c r="V40" s="31"/>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="49">
+      <c r="G41" s="60">
         <f>AVERAGE(G40:J40)</f>
         <v>90.104166666666657</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="45">
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="52">
         <f>AVERAGE(K40:P40)</f>
         <v>0</v>
       </c>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="48"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="55"/>
     </row>
     <row r="43" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="3:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="56">
         <f>AVERAGE(G41,K41,Q40,R40)</f>
         <v>37.664930555555557</v>
       </c>
-      <c r="G44" s="52"/>
+      <c r="G44" s="57"/>
     </row>
     <row r="45" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="50"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="54"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="3:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="1048576" spans="7:7" x14ac:dyDescent="0.25">
@@ -7317,17 +7523,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="K41:P41"/>
     <mergeCell ref="Q40:Q41"/>
     <mergeCell ref="R40:R41"/>
@@ -7339,11 +7547,9 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="S4:S39">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7353,7 +7559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q39">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="70"/>
@@ -7363,18 +7569,60 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U39">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>COUNTIF(V4,"TRUE") = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T39">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="30"/>
         <color theme="0"/>
         <color rgb="FFFF0000"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16479E61-2281-438A-9BAD-DF0DB058016D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:P39">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{99091DA0-D71C-4C3F-ACF9-FFAB6D758B1B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F6D8E46-B846-4DBA-BE77-8D08440269C1}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8245,6 +8493,60 @@
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{16479E61-2281-438A-9BAD-DF0DB058016D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{99091DA0-D71C-4C3F-ACF9-FFAB6D758B1B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H5:P39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F6D8E46-B846-4DBA-BE77-8D08440269C1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4:G39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8356,51 +8658,51 @@
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="E3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="19"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8421,31 +8723,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="S1" s="37" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="S1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
     </row>
     <row r="2" spans="6:30" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
@@ -8462,767 +8764,767 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="S3" s="33" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="S3" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
     </row>
     <row r="4" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
     </row>
     <row r="5" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
     </row>
     <row r="6" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
     </row>
     <row r="7" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
     </row>
     <row r="8" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="S8" s="33" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="S8" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
     </row>
     <row r="9" spans="6:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
     </row>
     <row r="10" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="35" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="S10" s="33" t="s">
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="S10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="33" t="s">
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
     </row>
     <row r="11" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
     </row>
     <row r="12" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
     </row>
     <row r="13" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
     </row>
     <row r="14" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="34"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
     </row>
     <row r="15" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
     </row>
     <row r="16" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
     </row>
     <row r="17" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="34"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
     </row>
     <row r="18" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
     </row>
     <row r="19" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
     </row>
     <row r="20" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
     </row>
     <row r="21" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
     </row>
     <row r="22" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
     </row>
     <row r="23" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
     </row>
     <row r="24" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
     </row>
     <row r="25" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
     </row>
     <row r="26" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
     </row>
     <row r="27" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
     </row>
     <row r="28" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
     </row>
     <row r="29" spans="6:30" x14ac:dyDescent="0.25">
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="S29" s="33" t="s">
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="S29" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
     </row>
     <row r="30" spans="6:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S29:AD30"/>
+    <mergeCell ref="F3:Q7"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="F10:H28"/>
+    <mergeCell ref="I10:Q28"/>
+    <mergeCell ref="F29:Q30"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="S1:AD1"/>
     <mergeCell ref="S3:AD7"/>
     <mergeCell ref="S8:AD9"/>
     <mergeCell ref="S10:U28"/>
     <mergeCell ref="V10:AD28"/>
-    <mergeCell ref="S29:AD30"/>
-    <mergeCell ref="F3:Q7"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="F10:H28"/>
-    <mergeCell ref="I10:Q28"/>
-    <mergeCell ref="F29:Q30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
